--- a/medicine/Mort/Chapelle_funéraire_de_Jules_Hunebelle/Chapelle_funéraire_de_Jules_Hunebelle.xlsx
+++ b/medicine/Mort/Chapelle_funéraire_de_Jules_Hunebelle/Chapelle_funéraire_de_Jules_Hunebelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chapelle_fun%C3%A9raire_de_Jules_Hunebelle</t>
+          <t>Chapelle_funéraire_de_Jules_Hunebelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chapelle funéraire de Jules Hunebelle est une chapelle funéraire située dans le cimetière communal rue du Bois-Tardieu, dans la commune de Clamart, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chapelle_fun%C3%A9raire_de_Jules_Hunebelle</t>
+          <t>Chapelle_funéraire_de_Jules_Hunebelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chapelle funéraire a été construite en 1900 par les architectes Raymond Barbaud et Édouard Bauhain[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chapelle funéraire a été construite en 1900 par les architectes Raymond Barbaud et Édouard Bauhain. 
 Elle est décorée de mosaïques par Henri Bichi. 
-Elle est destinée à Jules Hunebelle, maire de Clamart entre 1856 et 1900[1].
-Inscrite au titre des monuments historiques le 23 août 2006[1], elle est décrite comme de style romano-byzantin à l'instar de la basilique du Sacré-Cœur de Montmartre[1].
+Elle est destinée à Jules Hunebelle, maire de Clamart entre 1856 et 1900.
+Inscrite au titre des monuments historiques le 23 août 2006, elle est décrite comme de style romano-byzantin à l'instar de la basilique du Sacré-Cœur de Montmartre.
 </t>
         </is>
       </c>
